--- a/public/CTR_Template.xlsx
+++ b/public/CTR_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkang\pwapoc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkang\pwapoc - Copy\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0511181-10E4-4060-9A93-E9E2595CBCA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{482973F0-B311-4202-93F8-6F140BA88F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36450" yWindow="1950" windowWidth="28800" windowHeight="11385" tabRatio="500" xr2:uid="{0CCE4280-1008-4679-8CC0-B4ED2B2D57BF}"/>
+    <workbookView xWindow="40380" yWindow="1245" windowWidth="28800" windowHeight="8655" tabRatio="500" xr2:uid="{0CCE4280-1008-4679-8CC0-B4ED2B2D57BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Crew CTR" sheetId="2" r:id="rId1"/>
@@ -54,6 +54,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -76,16 +77,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
@@ -102,12 +99,24 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -120,6 +129,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -188,70 +200,18 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Arial">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -275,23 +235,41 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" panose="020B0604020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="굴림"/>
+        <a:font script="Hans" typeface="黑体"/>
+        <a:font script="Hant" typeface="微軟正黑體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -504,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279A2858-BEAB-4EBA-A612-7C4A70FDCB93}">
   <dimension ref="A1:H178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -518,41 +496,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="9"/>
-      <c r="H1" s="9"/>
+      <c r="A1" s="16"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8" ht="6.2" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="11"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -560,250 +538,250 @@
     </row>
     <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="8"/>
     </row>
     <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="8"/>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="8"/>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="8"/>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="8"/>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="8"/>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="8"/>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="8"/>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="8"/>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="8"/>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="8"/>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="8"/>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="8"/>
     </row>
     <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="8"/>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="8"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="8"/>
     </row>
     <row r="24" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="8"/>
-      <c r="C24" s="8"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="8"/>
     </row>
     <row r="25" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="6"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="2.65" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="32" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -956,6 +934,18 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="28">
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
@@ -972,18 +962,6 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B19:C19"/>
     <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <conditionalFormatting sqref="E6:H6">
